--- a/xlsx/哈莱姆文艺复兴_intext.xlsx
+++ b/xlsx/哈莱姆文艺复兴_intext.xlsx
@@ -29,7 +29,7 @@
     <t>文化运动</t>
   </si>
   <si>
-    <t>政策_政策_美國_哈莱姆文艺复兴</t>
+    <t>政策_政策_美国_哈莱姆文艺复兴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alain_Locke</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -7015,7 +7015,7 @@
         <v>346</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
